--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2807918.736101456</v>
+        <v>-2810486.223979938</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251558.01049059</v>
+        <v>13251558.01049058</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.2830023150578</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>344.8220524225849</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>43.7468899118449</v>
       </c>
       <c r="E11" t="n">
-        <v>361.479530723839</v>
+        <v>361.4795307238391</v>
       </c>
       <c r="F11" t="n">
-        <v>386.4252063932886</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>391.0257380076017</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>279.8393000378531</v>
+        <v>279.8393000378532</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>101.3806056120901</v>
+        <v>101.3806056120902</v>
       </c>
       <c r="T11" t="n">
-        <v>185.895994119202</v>
+        <v>185.8959941192021</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>230.5887207466849</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>307.3014191217122</v>
       </c>
       <c r="W11" t="n">
-        <v>328.7901293689902</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>349.2802613300464</v>
       </c>
       <c r="Y11" t="n">
-        <v>173.0023667555625</v>
+        <v>365.7870993076309</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>146.0823443014446</v>
+        <v>146.0823443014447</v>
       </c>
       <c r="C12" t="n">
-        <v>152.2576596398929</v>
+        <v>152.2576596398931</v>
       </c>
       <c r="D12" t="n">
-        <v>126.9942262162159</v>
+        <v>126.9942262162161</v>
       </c>
       <c r="E12" t="n">
-        <v>137.1942411069782</v>
+        <v>137.1942411069783</v>
       </c>
       <c r="F12" t="n">
-        <v>124.6183730449611</v>
+        <v>124.6183730449612</v>
       </c>
       <c r="G12" t="n">
-        <v>114.8455016504109</v>
+        <v>114.845501650411</v>
       </c>
       <c r="H12" t="n">
-        <v>72.01319298474891</v>
+        <v>72.013192984749</v>
       </c>
       <c r="I12" t="n">
-        <v>8.587624465791862</v>
+        <v>8.587624465791905</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>113.2069323863958</v>
+        <v>113.2069323863959</v>
       </c>
       <c r="T12" t="n">
-        <v>171.4623327891075</v>
+        <v>171.4623327891076</v>
       </c>
       <c r="U12" t="n">
-        <v>205.3558600901588</v>
+        <v>205.3558600901589</v>
       </c>
       <c r="V12" t="n">
-        <v>212.3497478010025</v>
+        <v>212.3497478010026</v>
       </c>
       <c r="W12" t="n">
-        <v>231.2441438124968</v>
+        <v>231.2441438124969</v>
       </c>
       <c r="X12" t="n">
-        <v>185.3221458550547</v>
+        <v>185.3221458550548</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.2318564288815</v>
+        <v>185.2318564288817</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.3811408335145</v>
+        <v>159.3811408335146</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.7959817502052</v>
       </c>
       <c r="D13" t="n">
-        <v>128.1646336697896</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>125.9831232981464</v>
+        <v>125.9831232981465</v>
       </c>
       <c r="F13" t="n">
-        <v>124.9702086745084</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8238562829267</v>
+        <v>145.8238562829268</v>
       </c>
       <c r="H13" t="n">
-        <v>126.5170105670819</v>
+        <v>126.517010567082</v>
       </c>
       <c r="I13" t="n">
-        <v>83.38630313085957</v>
+        <v>83.38630313085963</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.6721946261806</v>
+        <v>79.67219462618064</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>200.161537791301</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>265.774574532044</v>
+        <v>265.7745745320441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>122.7293446437389</v>
+        <v>266.0721589881683</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>163.1575840409638</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.133814003672</v>
+        <v>198.1338140036721</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>172.345524748776</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>326.7594514077787</v>
+        <v>326.7594514077788</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>316.1696012574541</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>343.416929709033</v>
       </c>
       <c r="F14" t="n">
         <v>368.3626053784826</v>
       </c>
       <c r="G14" t="n">
-        <v>372.4082852902246</v>
+        <v>216.3849393877539</v>
       </c>
       <c r="H14" t="n">
         <v>256.0943240240916</v>
       </c>
       <c r="I14" t="n">
-        <v>3.063489409697098</v>
+        <v>3.063489409697155</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.67432142494697</v>
+        <v>70.67432142494704</v>
       </c>
       <c r="T14" t="n">
-        <v>165.4045297763913</v>
+        <v>165.4045297763914</v>
       </c>
       <c r="U14" t="n">
-        <v>212.4817315956731</v>
+        <v>212.4817315956732</v>
       </c>
       <c r="V14" t="n">
-        <v>289.238818106906</v>
+        <v>289.2388181069061</v>
       </c>
       <c r="W14" t="n">
-        <v>310.7275283541841</v>
+        <v>310.7275283541842</v>
       </c>
       <c r="X14" t="n">
-        <v>331.2176603152402</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.7244982928247</v>
+        <v>347.7244982928248</v>
       </c>
     </row>
     <row r="15">
@@ -1692,19 +1692,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804553998</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G15" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.3185398187084</v>
+        <v>141.3185398187085</v>
       </c>
       <c r="C16" t="n">
-        <v>128.733380735399</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.1020326549835</v>
+        <v>110.1020326549836</v>
       </c>
       <c r="E16" t="n">
-        <v>107.9205222833403</v>
+        <v>107.9205222833404</v>
       </c>
       <c r="F16" t="n">
         <v>106.9076076597024</v>
       </c>
       <c r="G16" t="n">
-        <v>127.5123678957993</v>
+        <v>127.5123678957994</v>
       </c>
       <c r="H16" t="n">
-        <v>106.2415745510919</v>
+        <v>33.24134720161487</v>
       </c>
       <c r="I16" t="n">
-        <v>57.83898004660924</v>
+        <v>57.8389800466093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.41871230681846</v>
+        <v>50.41871230681853</v>
       </c>
       <c r="S16" t="n">
-        <v>151.255584968213</v>
+        <v>151.2555849682131</v>
       </c>
       <c r="T16" t="n">
-        <v>181.0355089129403</v>
+        <v>181.0355089129404</v>
       </c>
       <c r="U16" t="n">
-        <v>247.698397842384</v>
+        <v>247.6983978423841</v>
       </c>
       <c r="V16" t="n">
-        <v>213.6242029605991</v>
+        <v>213.6242029605992</v>
       </c>
       <c r="W16" t="n">
-        <v>226.3471628773532</v>
+        <v>248.0095579733622</v>
       </c>
       <c r="X16" t="n">
-        <v>187.1962150258083</v>
+        <v>187.1962150258084</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>180.071212988866</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D17" t="n">
-        <v>256.9983213925779</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G17" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H17" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.5030415600708</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U17" t="n">
-        <v>153.3104517307969</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V17" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W17" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X17" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1983,7 +1983,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609184</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383225</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052278</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010731</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846412</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F19" t="n">
-        <v>47.7363277948262</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092317</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621573</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T19" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5271179775078</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V19" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W19" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D20" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U20" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V20" t="n">
         <v>230.06753824203</v>
@@ -2144,7 +2144,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y20" t="n">
         <v>288.5532184279487</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2169,16 +2169,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G21" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T22" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V22" t="n">
         <v>154.4529230957231</v>
@@ -2302,10 +2302,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D23" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U23" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V23" t="n">
         <v>230.06753824203</v>
@@ -2381,7 +2381,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y23" t="n">
         <v>288.5532184279487</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
-        <v>190.7165703189221</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U24" t="n">
         <v>225.7871683969286</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333696</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T25" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V25" t="n">
         <v>154.4529230957231</v>
@@ -2539,10 +2539,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>305.4999607837984</v>
       </c>
       <c r="C26" t="n">
-        <v>288.0390108913254</v>
+        <v>288.0390108913253</v>
       </c>
       <c r="D26" t="n">
         <v>277.4491607410008</v>
@@ -2564,10 +2564,10 @@
         <v>304.6964891925796</v>
       </c>
       <c r="F26" t="n">
-        <v>329.6421648620293</v>
+        <v>329.6421648620292</v>
       </c>
       <c r="G26" t="n">
-        <v>333.6878447737713</v>
+        <v>333.6878447737712</v>
       </c>
       <c r="H26" t="n">
         <v>217.3738835076383</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.9538809084937</v>
+        <v>31.95388090849367</v>
       </c>
       <c r="T26" t="n">
-        <v>126.684089259938</v>
+        <v>126.6840892599379</v>
       </c>
       <c r="U26" t="n">
         <v>173.7612910792198</v>
       </c>
       <c r="V26" t="n">
-        <v>250.5183775904528</v>
+        <v>250.5183775904527</v>
       </c>
       <c r="W26" t="n">
-        <v>272.0070878377309</v>
+        <v>272.0070878377308</v>
       </c>
       <c r="X26" t="n">
-        <v>292.4972197987869</v>
+        <v>292.4972197987868</v>
       </c>
       <c r="Y26" t="n">
         <v>309.0040577763714</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.5980993022552</v>
+        <v>102.5980993022551</v>
       </c>
       <c r="C28" t="n">
-        <v>90.01294021894569</v>
+        <v>90.01294021894564</v>
       </c>
       <c r="D28" t="n">
-        <v>71.38159213853021</v>
+        <v>71.38159213853017</v>
       </c>
       <c r="E28" t="n">
-        <v>69.20008176688702</v>
+        <v>69.20008176688698</v>
       </c>
       <c r="F28" t="n">
-        <v>68.1871671432491</v>
+        <v>68.18716714324906</v>
       </c>
       <c r="G28" t="n">
-        <v>88.79192737934608</v>
+        <v>88.79192737934603</v>
       </c>
       <c r="H28" t="n">
-        <v>67.52113403463864</v>
+        <v>67.52113403463859</v>
       </c>
       <c r="I28" t="n">
-        <v>19.11853953015596</v>
+        <v>19.11853953015592</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.6982717903652</v>
+        <v>11.69827179036515</v>
       </c>
       <c r="S28" t="n">
         <v>112.5351444517597</v>
@@ -2767,16 +2767,16 @@
         <v>142.315068396487</v>
       </c>
       <c r="U28" t="n">
-        <v>208.9779573259307</v>
+        <v>208.9779573259306</v>
       </c>
       <c r="V28" t="n">
-        <v>174.9037624441459</v>
+        <v>174.9037624441458</v>
       </c>
       <c r="W28" t="n">
-        <v>209.2891174569089</v>
+        <v>209.2891174569088</v>
       </c>
       <c r="X28" t="n">
-        <v>148.475774509355</v>
+        <v>148.4757745093549</v>
       </c>
       <c r="Y28" t="n">
         <v>141.3507724724126</v>
@@ -2871,7 +2871,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883147</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2953,22 +2953,22 @@
         <v>108.0755412337518</v>
       </c>
       <c r="D31" t="n">
-        <v>89.44419315333631</v>
+        <v>89.44419315333633</v>
       </c>
       <c r="E31" t="n">
-        <v>87.26268278169313</v>
+        <v>87.26268278169314</v>
       </c>
       <c r="F31" t="n">
-        <v>86.2497681580552</v>
+        <v>86.24976815805522</v>
       </c>
       <c r="G31" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H31" t="n">
-        <v>85.58373504944474</v>
+        <v>85.58373504944475</v>
       </c>
       <c r="I31" t="n">
-        <v>37.18114054496207</v>
+        <v>37.18114054496208</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.7608728051713</v>
+        <v>29.76087280517132</v>
       </c>
       <c r="S31" t="n">
-        <v>130.5977454665658</v>
+        <v>130.5977454665659</v>
       </c>
       <c r="T31" t="n">
-        <v>160.3776694112931</v>
+        <v>160.3776694112932</v>
       </c>
       <c r="U31" t="n">
         <v>227.0405583407368</v>
       </c>
       <c r="V31" t="n">
-        <v>192.9663634589519</v>
+        <v>192.966363458952</v>
       </c>
       <c r="W31" t="n">
-        <v>227.3517184717149</v>
+        <v>227.351718471715</v>
       </c>
       <c r="X31" t="n">
         <v>166.5383755241611</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.4133734872187</v>
+        <v>159.4133734872188</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247653</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189221</v>
       </c>
       <c r="U33" t="n">
         <v>225.7871683969286</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
         <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
-        <v>1.012949724099599e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007077</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279485</v>
@@ -3360,7 +3360,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247745</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383222</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052276</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010728</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846409</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482617</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092315</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862157</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333682</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
         <v>196.9230441592154</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007077</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279485</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773032</v>
       </c>
     </row>
     <row r="40">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383222</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052276</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010728</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846409</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482617</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092315</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862157</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333682</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3749,13 +3749,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247745</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239898</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007076</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279485</v>
@@ -4068,7 +4068,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H45" t="n">
         <v>89.59687541851116</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538322</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052274</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010726</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846408</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482615</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092313</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621569</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333682</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1486.082062591219</v>
+        <v>1093.271959493784</v>
       </c>
       <c r="C11" t="n">
-        <v>1486.082062591219</v>
+        <v>744.9668560366276</v>
       </c>
       <c r="D11" t="n">
-        <v>1486.082062591219</v>
+        <v>700.7780783478955</v>
       </c>
       <c r="E11" t="n">
-        <v>1120.95122347623</v>
+        <v>335.6472392329065</v>
       </c>
       <c r="F11" t="n">
-        <v>730.6227321698777</v>
+        <v>335.6472392329065</v>
       </c>
       <c r="G11" t="n">
-        <v>335.6472392329064</v>
+        <v>335.6472392329065</v>
       </c>
       <c r="H11" t="n">
-        <v>52.98127959871131</v>
+        <v>52.98127959871139</v>
       </c>
       <c r="I11" t="n">
-        <v>52.98127959871131</v>
+        <v>52.98127959871139</v>
       </c>
       <c r="J11" t="n">
-        <v>195.2389893135614</v>
+        <v>195.2389893135605</v>
       </c>
       <c r="K11" t="n">
         <v>459.1849379150985</v>
       </c>
       <c r="L11" t="n">
-        <v>823.5349887105658</v>
+        <v>823.5349887105672</v>
       </c>
       <c r="M11" t="n">
-        <v>1260.614060403607</v>
+        <v>1260.61406040361</v>
       </c>
       <c r="N11" t="n">
-        <v>1709.379336807576</v>
+        <v>1709.379336807579</v>
       </c>
       <c r="O11" t="n">
-        <v>2119.800400583366</v>
+        <v>2119.800400583369</v>
       </c>
       <c r="P11" t="n">
-        <v>2435.584282230147</v>
+        <v>2435.58428223015</v>
       </c>
       <c r="Q11" t="n">
-        <v>2624.552079607774</v>
+        <v>2624.552079607777</v>
       </c>
       <c r="R11" t="n">
-        <v>2649.063979935565</v>
+        <v>2649.063979935569</v>
       </c>
       <c r="S11" t="n">
-        <v>2546.659327802141</v>
+        <v>2546.659327802145</v>
       </c>
       <c r="T11" t="n">
-        <v>2358.885596368603</v>
+        <v>2358.885596368607</v>
       </c>
       <c r="U11" t="n">
-        <v>2358.885596368603</v>
+        <v>2125.967696624481</v>
       </c>
       <c r="V11" t="n">
-        <v>2358.885596368603</v>
+        <v>1815.562222764165</v>
       </c>
       <c r="W11" t="n">
-        <v>2026.774354581744</v>
+        <v>1815.562222764165</v>
       </c>
       <c r="X11" t="n">
-        <v>2026.774354581744</v>
+        <v>1462.753877986341</v>
       </c>
       <c r="Y11" t="n">
-        <v>1852.024489172085</v>
+        <v>1093.271959493784</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>796.9316019310336</v>
+        <v>796.9316019310354</v>
       </c>
       <c r="C12" t="n">
-        <v>643.135986133162</v>
+        <v>643.1359861331637</v>
       </c>
       <c r="D12" t="n">
-        <v>514.8589899551662</v>
+        <v>514.8589899551677</v>
       </c>
       <c r="E12" t="n">
-        <v>376.278948432966</v>
+        <v>376.2789484329674</v>
       </c>
       <c r="F12" t="n">
-        <v>250.4018039431064</v>
+        <v>250.4018039431076</v>
       </c>
       <c r="G12" t="n">
-        <v>134.3962467204692</v>
+        <v>134.3962467204699</v>
       </c>
       <c r="H12" t="n">
-        <v>61.65564774597533</v>
+        <v>61.65564774597601</v>
       </c>
       <c r="I12" t="n">
-        <v>52.98127959871131</v>
+        <v>52.98127959871138</v>
       </c>
       <c r="J12" t="n">
-        <v>139.1374809399456</v>
+        <v>139.1374809399458</v>
       </c>
       <c r="K12" t="n">
-        <v>350.1891030796877</v>
+        <v>350.1891030796879</v>
       </c>
       <c r="L12" t="n">
-        <v>673.3192360231916</v>
+        <v>673.3192360231924</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.37354596505</v>
+        <v>1066.373545965052</v>
       </c>
       <c r="N12" t="n">
-        <v>1483.703618701677</v>
+        <v>1483.703618701678</v>
       </c>
       <c r="O12" t="n">
-        <v>1844.984201582347</v>
+        <v>1844.984201582349</v>
       </c>
       <c r="P12" t="n">
-        <v>2119.607519575157</v>
+        <v>2119.607519575158</v>
       </c>
       <c r="Q12" t="n">
-        <v>2259.978933382944</v>
+        <v>2259.978933382947</v>
       </c>
       <c r="R12" t="n">
-        <v>2261.836009470975</v>
+        <v>2261.836009470978</v>
       </c>
       <c r="S12" t="n">
-        <v>2147.48557271704</v>
+        <v>2147.485572717042</v>
       </c>
       <c r="T12" t="n">
-        <v>1974.291297172487</v>
+        <v>1974.291297172489</v>
       </c>
       <c r="U12" t="n">
-        <v>1766.861135465256</v>
+        <v>1766.861135465258</v>
       </c>
       <c r="V12" t="n">
-        <v>1552.366440716768</v>
+        <v>1552.366440716771</v>
       </c>
       <c r="W12" t="n">
-        <v>1318.786497471822</v>
+        <v>1318.786497471825</v>
       </c>
       <c r="X12" t="n">
-        <v>1131.592410749545</v>
+        <v>1131.592410749547</v>
       </c>
       <c r="Y12" t="n">
-        <v>944.4895254678463</v>
+        <v>944.4895254678482</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>795.2490933596331</v>
+        <v>687.83610286055</v>
       </c>
       <c r="C13" t="n">
-        <v>795.2490933596331</v>
+        <v>539.5573334158983</v>
       </c>
       <c r="D13" t="n">
-        <v>665.7898674305527</v>
+        <v>539.5573334158983</v>
       </c>
       <c r="E13" t="n">
-        <v>538.534187331415</v>
+        <v>412.3016533167604</v>
       </c>
       <c r="F13" t="n">
-        <v>412.3016533167599</v>
+        <v>412.3016533167604</v>
       </c>
       <c r="G13" t="n">
-        <v>265.0048287885512</v>
+        <v>265.0048287885515</v>
       </c>
       <c r="H13" t="n">
-        <v>137.2098686197816</v>
+        <v>137.2098686197817</v>
       </c>
       <c r="I13" t="n">
-        <v>52.98127959871131</v>
+        <v>52.98127959871138</v>
       </c>
       <c r="J13" t="n">
         <v>100.9298691497005</v>
@@ -5206,7 +5206,7 @@
         <v>596.7097501100704</v>
       </c>
       <c r="M13" t="n">
-        <v>922.4890420161319</v>
+        <v>922.4890420161321</v>
       </c>
       <c r="N13" t="n">
         <v>1246.438059432375</v>
@@ -5215,34 +5215,34 @@
         <v>1531.186681524062</v>
       </c>
       <c r="P13" t="n">
-        <v>1754.239734500396</v>
+        <v>1754.239734500397</v>
       </c>
       <c r="Q13" t="n">
         <v>1831.463847329786</v>
       </c>
       <c r="R13" t="n">
-        <v>1750.986883060916</v>
+        <v>1750.986883060917</v>
       </c>
       <c r="S13" t="n">
-        <v>1750.986883060916</v>
+        <v>1750.986883060917</v>
       </c>
       <c r="T13" t="n">
-        <v>1548.803511554552</v>
+        <v>1750.986883060917</v>
       </c>
       <c r="U13" t="n">
-        <v>1280.344345360568</v>
+        <v>1482.527716866933</v>
       </c>
       <c r="V13" t="n">
-        <v>1280.344345360568</v>
+        <v>1482.527716866933</v>
       </c>
       <c r="W13" t="n">
-        <v>1156.375310366892</v>
+        <v>1213.767960313227</v>
       </c>
       <c r="X13" t="n">
-        <v>1156.375310366892</v>
+        <v>1048.962319867809</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.2401447066175</v>
+        <v>848.8271542075345</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1406.601162402158</v>
+        <v>1915.250844285003</v>
       </c>
       <c r="C14" t="n">
-        <v>1076.541110475109</v>
+        <v>1585.190792357954</v>
       </c>
       <c r="D14" t="n">
-        <v>1076.541110475109</v>
+        <v>1265.827558764566</v>
       </c>
       <c r="E14" t="n">
-        <v>1076.541110475109</v>
+        <v>918.9417711796839</v>
       </c>
       <c r="F14" t="n">
-        <v>704.4576706988635</v>
+        <v>546.8583314034388</v>
       </c>
       <c r="G14" t="n">
-        <v>328.2876855572225</v>
+        <v>328.2876855572228</v>
       </c>
       <c r="H14" t="n">
-        <v>69.60655017935221</v>
+        <v>69.60655017935244</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
@@ -5285,43 +5285,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3254.217618149628</v>
+        <v>3254.217618149629</v>
       </c>
       <c r="T14" t="n">
-        <v>3087.142335547213</v>
+        <v>3087.142335547214</v>
       </c>
       <c r="U14" t="n">
-        <v>2872.514323834412</v>
+        <v>2872.514323834413</v>
       </c>
       <c r="V14" t="n">
-        <v>2580.353901504203</v>
+        <v>2580.353901504204</v>
       </c>
       <c r="W14" t="n">
         <v>2266.487711247452</v>
       </c>
       <c r="X14" t="n">
-        <v>1931.924417999734</v>
+        <v>2266.487711247452</v>
       </c>
       <c r="Y14" t="n">
-        <v>1580.687551037285</v>
+        <v>1915.250844285003</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
         <v>312.3844025601599</v>
@@ -5352,16 +5352,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,31 +5373,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>819.2964253482696</v>
+        <v>615.525104050416</v>
       </c>
       <c r="C16" t="n">
-        <v>689.2627074337252</v>
+        <v>615.525104050416</v>
       </c>
       <c r="D16" t="n">
-        <v>578.0485330347519</v>
+        <v>504.3109296514426</v>
       </c>
       <c r="E16" t="n">
-        <v>469.0379044657213</v>
+        <v>395.3003010824119</v>
       </c>
       <c r="F16" t="n">
-        <v>361.0504219811735</v>
+        <v>287.312818597864</v>
       </c>
       <c r="G16" t="n">
-        <v>232.250050369255</v>
+        <v>158.5124469859452</v>
       </c>
       <c r="H16" t="n">
-        <v>124.9353286004753</v>
+        <v>124.9353286004757</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>149.7630548387155</v>
       </c>
       <c r="K16" t="n">
-        <v>391.8785437471884</v>
+        <v>391.8785437471883</v>
       </c>
       <c r="L16" t="n">
         <v>746.566648155281</v>
@@ -5455,7 +5455,7 @@
         <v>2116.582393653153</v>
       </c>
       <c r="Q16" t="n">
-        <v>2232.320995765264</v>
+        <v>2232.320995765265</v>
       </c>
       <c r="R16" t="n">
         <v>2181.393003536155</v>
@@ -5467,19 +5467,19 @@
         <v>1845.745433959232</v>
       </c>
       <c r="U16" t="n">
-        <v>1595.545032098238</v>
+        <v>1595.545032098239</v>
       </c>
       <c r="V16" t="n">
         <v>1379.763008905714</v>
       </c>
       <c r="W16" t="n">
-        <v>1151.129511049802</v>
+        <v>1129.248303882116</v>
       </c>
       <c r="X16" t="n">
-        <v>962.0424251651468</v>
+        <v>940.161217997461</v>
       </c>
       <c r="Y16" t="n">
-        <v>962.0424251651468</v>
+        <v>758.2711038672933</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C17" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D17" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464976</v>
       </c>
       <c r="F17" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307333</v>
       </c>
       <c r="G17" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X17" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="18">
@@ -5586,19 +5586,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,34 +5610,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170918</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630284</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919197</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G19" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>67.83109325226766</v>
+        <v>67.83109325226755</v>
       </c>
       <c r="J19" t="n">
-        <v>79.65384678970709</v>
+        <v>176.3617198155308</v>
       </c>
       <c r="K19" t="n">
-        <v>177.9647010573774</v>
+        <v>274.6725740832012</v>
       </c>
       <c r="L19" t="n">
-        <v>430.3824180055586</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M19" t="n">
-        <v>694.5227723305804</v>
+        <v>791.230645356404</v>
       </c>
       <c r="N19" t="n">
-        <v>962.5394823862518</v>
+        <v>1059.247355412075</v>
       </c>
       <c r="O19" t="n">
-        <v>1197.165704630266</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P19" t="n">
-        <v>1392.824580408848</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q19" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T19" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U19" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304657</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673485</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431747</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734881</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>265.4242822495729</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5768,19 +5768,19 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U20" t="n">
         <v>3051.821232515855</v>
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
         <v>312.3844025601599</v>
@@ -5826,16 +5826,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,31 +5847,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
         <v>1109.759191501176</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F22" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G22" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226755</v>
       </c>
       <c r="J22" t="n">
-        <v>155.2189959588259</v>
+        <v>79.653846789707</v>
       </c>
       <c r="K22" t="n">
-        <v>253.5298502264962</v>
+        <v>253.5298502264972</v>
       </c>
       <c r="L22" t="n">
-        <v>505.9475671746773</v>
+        <v>505.9475671746783</v>
       </c>
       <c r="M22" t="n">
-        <v>770.087921499699</v>
+        <v>673.3800484738761</v>
       </c>
       <c r="N22" t="n">
-        <v>1038.10463155537</v>
+        <v>941.3967585295474</v>
       </c>
       <c r="O22" t="n">
-        <v>1176.02298077356</v>
+        <v>1176.022980773561</v>
       </c>
       <c r="P22" t="n">
         <v>1371.681856552143</v>
       </c>
       <c r="Q22" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T22" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C23" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G23" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T23" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V23" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X23" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
         <v>176.021302392778</v>
@@ -6063,16 +6063,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6084,22 +6084,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6108,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226759</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>79.65384678970702</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K25" t="n">
-        <v>274.6725740832013</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L25" t="n">
-        <v>527.0902910313823</v>
+        <v>622.4791872371221</v>
       </c>
       <c r="M25" t="n">
-        <v>791.230645356404</v>
+        <v>875.4608364080003</v>
       </c>
       <c r="N25" t="n">
-        <v>1059.247355412075</v>
+        <v>1046.769673437848</v>
       </c>
       <c r="O25" t="n">
-        <v>1293.873577656089</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P25" t="n">
-        <v>1468.389729577966</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S25" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673495</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6209,10 @@
         <v>1269.788358141992</v>
       </c>
       <c r="E26" t="n">
-        <v>962.0141266343358</v>
+        <v>962.014126634336</v>
       </c>
       <c r="F26" t="n">
-        <v>629.0422429353162</v>
+        <v>629.0422429353168</v>
       </c>
       <c r="G26" t="n">
         <v>291.9838138709011</v>
@@ -6221,31 +6221,31 @@
         <v>72.41423457025637</v>
       </c>
       <c r="I26" t="n">
-        <v>107.714616165945</v>
+        <v>72.41423457025637</v>
       </c>
       <c r="J26" t="n">
-        <v>296.5937471249704</v>
+        <v>337.7549076001671</v>
       </c>
       <c r="K26" t="n">
-        <v>630.4131208148167</v>
+        <v>671.5742812900135</v>
       </c>
       <c r="L26" t="n">
-        <v>1081.447334063225</v>
+        <v>1122.608494538422</v>
       </c>
       <c r="M26" t="n">
-        <v>1691.440780806035</v>
+        <v>1732.601941281232</v>
       </c>
       <c r="N26" t="n">
-        <v>2262.738378822049</v>
+        <v>2279.380758340014</v>
       </c>
       <c r="O26" t="n">
-        <v>2765.710849701386</v>
+        <v>2782.353229219351</v>
       </c>
       <c r="P26" t="n">
-        <v>3160.485216058563</v>
+        <v>3236.946758129448</v>
       </c>
       <c r="Q26" t="n">
-        <v>3485.233119885131</v>
+        <v>3561.694661956016</v>
       </c>
       <c r="R26" t="n">
         <v>3620.711728512818</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.4176509457642</v>
+        <v>551.4176509457639</v>
       </c>
       <c r="C28" t="n">
-        <v>460.4954891084453</v>
+        <v>460.495489108445</v>
       </c>
       <c r="D28" t="n">
-        <v>388.3928707866976</v>
+        <v>388.3928707866974</v>
       </c>
       <c r="E28" t="n">
-        <v>318.4937982948925</v>
+        <v>318.4937982948923</v>
       </c>
       <c r="F28" t="n">
-        <v>249.6178718875702</v>
+        <v>249.61787188757</v>
       </c>
       <c r="G28" t="n">
-        <v>159.9290563528772</v>
+        <v>159.9290563528771</v>
       </c>
       <c r="H28" t="n">
-        <v>91.72589066132301</v>
+        <v>91.72589066132295</v>
       </c>
       <c r="I28" t="n">
         <v>72.41423457025637</v>
       </c>
       <c r="J28" t="n">
-        <v>160.6985301785811</v>
+        <v>193.9984090880773</v>
       </c>
       <c r="K28" t="n">
-        <v>335.4709265171367</v>
+        <v>474.447134107839</v>
       </c>
       <c r="L28" t="n">
-        <v>619.2696114564245</v>
+        <v>711.7138922717204</v>
       </c>
       <c r="M28" t="n">
-        <v>863.1636348265076</v>
+        <v>955.6079156418035</v>
       </c>
       <c r="N28" t="n">
-        <v>1110.93401392724</v>
+        <v>1203.378294742536</v>
       </c>
       <c r="O28" t="n">
-        <v>1486.725154918539</v>
+        <v>1417.758186031611</v>
       </c>
       <c r="P28" t="n">
-        <v>1662.137699742183</v>
+        <v>1726.827228536156</v>
       </c>
       <c r="Q28" t="n">
-        <v>1816.209537965583</v>
+        <v>1816.209537965582</v>
       </c>
       <c r="R28" t="n">
-        <v>1804.393101813699</v>
+        <v>1804.393101813698</v>
       </c>
       <c r="S28" t="n">
-        <v>1690.721238731113</v>
+        <v>1690.721238731112</v>
       </c>
       <c r="T28" t="n">
-        <v>1546.968644391227</v>
+        <v>1546.968644391226</v>
       </c>
       <c r="U28" t="n">
-        <v>1335.879798607459</v>
+        <v>1335.879798607458</v>
       </c>
       <c r="V28" t="n">
-        <v>1159.20933149216</v>
+        <v>1159.209331492159</v>
       </c>
       <c r="W28" t="n">
-        <v>947.8061825457872</v>
+        <v>947.8061825457867</v>
       </c>
       <c r="X28" t="n">
-        <v>797.8306527383579</v>
+        <v>797.8306527383575</v>
       </c>
       <c r="Y28" t="n">
-        <v>655.0520946854159</v>
+        <v>655.0520946854155</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1955.671712554366</v>
       </c>
       <c r="C29" t="n">
-        <v>1646.478165174435</v>
+        <v>1646.478165174436</v>
       </c>
       <c r="D29" t="n">
         <v>1347.981436128166</v>
       </c>
       <c r="E29" t="n">
-        <v>1021.962153090402</v>
+        <v>1021.962153090403</v>
       </c>
       <c r="F29" t="n">
-        <v>670.7452178612757</v>
+        <v>670.7452178612759</v>
       </c>
       <c r="G29" t="n">
-        <v>315.4417372667532</v>
+        <v>315.4417372667533</v>
       </c>
       <c r="H29" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="I29" t="n">
-        <v>95.04551302703186</v>
+        <v>95.04551302703177</v>
       </c>
       <c r="J29" t="n">
-        <v>342.5042110522842</v>
+        <v>342.5042110522844</v>
       </c>
       <c r="K29" t="n">
-        <v>734.9031518083578</v>
+        <v>734.9031518083582</v>
       </c>
       <c r="L29" t="n">
         <v>1244.516932122994</v>
       </c>
       <c r="M29" t="n">
-        <v>1836.628403861145</v>
+        <v>1836.628403861146</v>
       </c>
       <c r="N29" t="n">
         <v>2441.986787986155</v>
@@ -6506,7 +6506,7 @@
         <v>2612.872945473338</v>
       </c>
       <c r="Y29" t="n">
-        <v>2282.502583058007</v>
+        <v>2282.502583058008</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>952.6588444849256</v>
+        <v>952.6588444849266</v>
       </c>
       <c r="C30" t="n">
         <v>778.2058152037996</v>
@@ -6558,34 +6558,34 @@
         <v>2108.027383414456</v>
       </c>
       <c r="P30" t="n">
-        <v>2418.526974890558</v>
+        <v>2418.526974890559</v>
       </c>
       <c r="Q30" t="n">
-        <v>2576.168532537158</v>
+        <v>2576.168532537159</v>
       </c>
       <c r="R30" t="n">
-        <v>2576.024179129673</v>
+        <v>2576.024179129674</v>
       </c>
       <c r="S30" t="n">
-        <v>2446.586292623153</v>
+        <v>2446.586292623154</v>
       </c>
       <c r="T30" t="n">
-        <v>2253.943292301009</v>
+        <v>2253.94329230101</v>
       </c>
       <c r="U30" t="n">
         <v>2025.875445435425</v>
       </c>
       <c r="V30" t="n">
-        <v>1790.723337203682</v>
+        <v>1790.723337203683</v>
       </c>
       <c r="W30" t="n">
-        <v>1536.48598047548</v>
+        <v>1536.485980475481</v>
       </c>
       <c r="X30" t="n">
         <v>1328.634480269948</v>
       </c>
       <c r="Y30" t="n">
-        <v>1120.874181504994</v>
+        <v>1120.874181504995</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>684.3458835222593</v>
+        <v>684.3458835222594</v>
       </c>
       <c r="C31" t="n">
-        <v>575.1786701548333</v>
+        <v>575.1786701548334</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8310003029784</v>
+        <v>484.8310003029785</v>
       </c>
       <c r="E31" t="n">
-        <v>396.6868762810661</v>
+        <v>396.6868762810662</v>
       </c>
       <c r="F31" t="n">
         <v>309.5658983436367</v>
@@ -6619,37 +6619,37 @@
         <v>77.62710643600128</v>
       </c>
       <c r="J31" t="n">
-        <v>181.3293059491641</v>
+        <v>148.029427039668</v>
       </c>
       <c r="K31" t="n">
-        <v>443.8960559642677</v>
+        <v>304.9198483735656</v>
       </c>
       <c r="L31" t="n">
-        <v>658.1854669528523</v>
+        <v>680.0592138882889</v>
       </c>
       <c r="M31" t="n">
-        <v>928.0691938356815</v>
+        <v>1082.795826554065</v>
       </c>
       <c r="N31" t="n">
-        <v>1328.057137607773</v>
+        <v>1482.783770326157</v>
       </c>
       <c r="O31" t="n">
-        <v>1685.966303594414</v>
+        <v>1750.655832388388</v>
       </c>
       <c r="P31" t="n">
-        <v>1977.153371094301</v>
+        <v>2041.842899888275</v>
       </c>
       <c r="Q31" t="n">
         <v>2113.343234313043</v>
       </c>
       <c r="R31" t="n">
-        <v>2083.281746631051</v>
+        <v>2083.281746631052</v>
       </c>
       <c r="S31" t="n">
-        <v>1951.364832018358</v>
+        <v>1951.364832018359</v>
       </c>
       <c r="T31" t="n">
-        <v>1789.367186148365</v>
+        <v>1789.367186148366</v>
       </c>
       <c r="U31" t="n">
         <v>1560.03328883449</v>
@@ -6661,10 +6661,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X31" t="n">
-        <v>967.2489883750675</v>
+        <v>967.2489883750676</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.2253787920182</v>
+        <v>806.2253787920183</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1021.962153090403</v>
       </c>
       <c r="F32" t="n">
-        <v>670.7452178612759</v>
+        <v>670.7452178612762</v>
       </c>
       <c r="G32" t="n">
         <v>315.4417372667533</v>
@@ -6695,13 +6695,13 @@
         <v>77.62710643600128</v>
       </c>
       <c r="I32" t="n">
-        <v>95.04551302703182</v>
+        <v>95.04551302703183</v>
       </c>
       <c r="J32" t="n">
-        <v>342.5042110522843</v>
+        <v>342.5042110522845</v>
       </c>
       <c r="K32" t="n">
-        <v>734.903151808358</v>
+        <v>734.9031518083581</v>
       </c>
       <c r="L32" t="n">
         <v>1244.516932122994</v>
@@ -6713,10 +6713,10 @@
         <v>2441.986787986155</v>
       </c>
       <c r="O32" t="n">
-        <v>3003.53882593172</v>
+        <v>3003.538825931719</v>
       </c>
       <c r="P32" t="n">
-        <v>3456.892759355125</v>
+        <v>3456.892759355124</v>
       </c>
       <c r="Q32" t="n">
         <v>3763.758688177034</v>
@@ -6743,7 +6743,7 @@
         <v>2612.872945473338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2282.502583058008</v>
+        <v>2282.502583058007</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>952.6588444849256</v>
+        <v>952.6588444849266</v>
       </c>
       <c r="C33" t="n">
-        <v>778.2058152037986</v>
+        <v>778.2058152037996</v>
       </c>
       <c r="D33" t="n">
-        <v>629.2714055425473</v>
+        <v>629.2714055425483</v>
       </c>
       <c r="E33" t="n">
-        <v>470.0339505370918</v>
+        <v>470.0339505370928</v>
       </c>
       <c r="F33" t="n">
-        <v>323.4993925639768</v>
+        <v>323.4993925639777</v>
       </c>
       <c r="G33" t="n">
-        <v>187.1362923965949</v>
+        <v>187.1362923965958</v>
       </c>
       <c r="H33" t="n">
-        <v>96.63439803446242</v>
+        <v>96.63439803446335</v>
       </c>
       <c r="I33" t="n">
         <v>77.62710643600128</v>
@@ -6807,22 +6807,22 @@
         <v>2446.586292623153</v>
       </c>
       <c r="T33" t="n">
-        <v>2253.943292301009</v>
+        <v>2253.94329230101</v>
       </c>
       <c r="U33" t="n">
         <v>2025.875445435425</v>
       </c>
       <c r="V33" t="n">
-        <v>1790.723337203682</v>
+        <v>1790.723337203683</v>
       </c>
       <c r="W33" t="n">
-        <v>1536.48598047548</v>
+        <v>1536.485980475481</v>
       </c>
       <c r="X33" t="n">
         <v>1328.634480269948</v>
       </c>
       <c r="Y33" t="n">
-        <v>1120.874181504994</v>
+        <v>1120.874181504995</v>
       </c>
     </row>
     <row r="34">
@@ -6856,25 +6856,25 @@
         <v>77.62710643600128</v>
       </c>
       <c r="J34" t="n">
-        <v>181.3293059491641</v>
+        <v>148.029427039668</v>
       </c>
       <c r="K34" t="n">
-        <v>443.8960559642677</v>
+        <v>410.5961770547716</v>
       </c>
       <c r="L34" t="n">
-        <v>819.0354214789911</v>
+        <v>785.735542569495</v>
       </c>
       <c r="M34" t="n">
-        <v>1221.772034144767</v>
+        <v>1011.74759093492</v>
       </c>
       <c r="N34" t="n">
-        <v>1621.759977916859</v>
+        <v>1411.735534707012</v>
       </c>
       <c r="O34" t="n">
-        <v>1819.622801275315</v>
+        <v>1769.644700693653</v>
       </c>
       <c r="P34" t="n">
-        <v>1977.153371094301</v>
+        <v>2041.842899888275</v>
       </c>
       <c r="Q34" t="n">
         <v>2113.343234313043</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,67 +6920,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218235</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912077</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810541</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7038,28 +7038,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170916</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630282</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D37" t="n">
-        <v>280.549442624536</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159864</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404821</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218338</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J37" t="n">
-        <v>175.0427429954468</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K37" t="n">
-        <v>273.3535972631171</v>
+        <v>350.2377232523188</v>
       </c>
       <c r="L37" t="n">
-        <v>429.0634411854743</v>
+        <v>505.947567174676</v>
       </c>
       <c r="M37" t="n">
-        <v>682.0450903563496</v>
+        <v>770.0879214996977</v>
       </c>
       <c r="N37" t="n">
-        <v>950.0618004120211</v>
+        <v>941.3967585295452</v>
       </c>
       <c r="O37" t="n">
-        <v>1184.688022656035</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P37" t="n">
-        <v>1380.346898434617</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818982</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T37" t="n">
         <v>1273.865908363022</v>
@@ -7129,16 +7129,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304653</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673483</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431744</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734878</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495727</v>
@@ -7184,7 +7184,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939507</v>
@@ -7193,7 +7193,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.60582160917</v>
@@ -7205,19 +7205,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
         <v>176.021302392778</v>
@@ -7251,10 +7251,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
         <v>765.151745215813</v>
@@ -7296,7 +7296,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170916</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630282</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D40" t="n">
-        <v>280.549442624536</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159864</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404821</v>
@@ -7327,37 +7327,37 @@
         <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J40" t="n">
-        <v>163.8840378413003</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K40" t="n">
-        <v>358.9027651347947</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L40" t="n">
-        <v>611.3204820829759</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M40" t="n">
-        <v>875.4608364079977</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N40" t="n">
-        <v>1143.477546463669</v>
+        <v>962.5394823862518</v>
       </c>
       <c r="O40" t="n">
-        <v>1378.103768707683</v>
+        <v>1197.165704630266</v>
       </c>
       <c r="P40" t="n">
-        <v>1477.054771460441</v>
+        <v>1392.824580408848</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818982</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T40" t="n">
         <v>1273.865908363022</v>
@@ -7366,16 +7366,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304653</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673483</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431744</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734878</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,25 +7409,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7439,22 +7439,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064548</v>
@@ -7506,34 +7506,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404822</v>
@@ -7564,55 +7564,55 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226766</v>
       </c>
       <c r="J43" t="n">
-        <v>175.0427429954468</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K43" t="n">
-        <v>370.061470288941</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L43" t="n">
-        <v>622.4791872371221</v>
+        <v>602.6554402004999</v>
       </c>
       <c r="M43" t="n">
-        <v>886.6195415621437</v>
+        <v>770.0879214996977</v>
       </c>
       <c r="N43" t="n">
-        <v>1154.636251617815</v>
+        <v>941.3967585295452</v>
       </c>
       <c r="O43" t="n">
-        <v>1292.554600836005</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P43" t="n">
-        <v>1391.505603588763</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464961</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307322</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218326</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912087</v>
@@ -7658,7 +7658,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939507</v>
@@ -7667,7 +7667,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7679,19 +7679,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
@@ -7737,40 +7737,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2237.889678607279</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C46" t="n">
-        <v>2167.624930253216</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D46" t="n">
-        <v>2116.179725414724</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E46" t="n">
-        <v>2066.938066406174</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>2018.719553482107</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G46" t="n">
-        <v>1949.68815143067</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H46" t="n">
-        <v>1902.142399222371</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>1903.461376042456</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J46" t="n">
-        <v>2011.992002605719</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>2207.010729899213</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L46" t="n">
-        <v>2459.428446847395</v>
+        <v>623.7981640572066</v>
       </c>
       <c r="M46" t="n">
-        <v>2711.091119198185</v>
+        <v>887.9385183822283</v>
       </c>
       <c r="N46" t="n">
-        <v>2979.107829253857</v>
+        <v>1059.247355412076</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.73405149787</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250629</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.60582160917</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S46" t="n">
-        <v>3232.59137200984</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
-        <v>3109.496191153209</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U46" t="n">
-        <v>2919.064758852696</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>2763.051705220653</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W46" t="n">
-        <v>2572.305969757536</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X46" t="n">
-        <v>2442.987853433362</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y46" t="n">
-        <v>2320.866708863675</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
   </sheetData>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>52.14878681418713</v>
+        <v>5.146840576402866</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10045,13 +10045,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>44.3148267852568</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>72.09509674526711</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
@@ -10513,19 +10513,19 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>1.378694014180752</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>115.8258882582188</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>362.2830023150579</v>
       </c>
       <c r="C11" t="n">
-        <v>344.8220524225848</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>334.2322022722602</v>
+        <v>290.4853123604154</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>386.4252063932888</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>391.0257380076018</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.51701068787239</v>
+        <v>42.51701068787236</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>230.5887207466849</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>307.3014191217121</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>328.7901293689903</v>
       </c>
       <c r="X11" t="n">
-        <v>349.2802613300462</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>192.7847325520683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.795981750205</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.1646336697897</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>124.9702086745086</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>173.6556140988367</v>
+        <v>173.6556140988368</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>200.1615377913012</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>231.6868039754052</v>
+        <v>231.6868039754053</v>
       </c>
       <c r="W13" t="n">
-        <v>143.3428143444293</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>205.2588160406144</v>
+        <v>42.10123199965065</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>171.8748765514757</v>
+        <v>344.2204013002518</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>316.1696012574541</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>343.4169297090329</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>156.0233459024707</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>331.2176603152402</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>128.733380735399</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>73.00022734947711</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>21.66239509600894</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.0712129888659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1130486.862331334</v>
+        <v>1130486.862331335</v>
       </c>
     </row>
     <row r="6">
@@ -26323,34 +26323,34 @@
         <v>32801.12538841253</v>
       </c>
       <c r="F2" t="n">
-        <v>37500.79176159084</v>
+        <v>37500.79176159079</v>
       </c>
       <c r="G2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="H2" t="n">
         <v>41052.08849321418</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321424</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="L2" t="n">
         <v>41052.08849321417</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321413</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321416</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>112652.3317030145</v>
+        <v>112652.3317030128</v>
       </c>
       <c r="E3" t="n">
-        <v>873064.1422095075</v>
+        <v>873064.1422095101</v>
       </c>
       <c r="F3" t="n">
-        <v>172008.5015608264</v>
+        <v>172008.5015608258</v>
       </c>
       <c r="G3" t="n">
-        <v>47337.02389190094</v>
+        <v>47337.02389190087</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>19303.1724764745</v>
+        <v>19303.17247647445</v>
       </c>
       <c r="K3" t="n">
         <v>16770.33007928795</v>
       </c>
       <c r="L3" t="n">
-        <v>47337.02389190093</v>
+        <v>47337.02389190087</v>
       </c>
       <c r="M3" t="n">
-        <v>161226.3376931559</v>
+        <v>161226.3376931562</v>
       </c>
       <c r="N3" t="n">
-        <v>41425.84091389783</v>
+        <v>41425.84091389761</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.13686837721616e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,22 +26421,22 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>421768.1011935024</v>
+        <v>421768.1011935031</v>
       </c>
       <c r="E4" t="n">
-        <v>48306.99980317951</v>
+        <v>48306.99980317933</v>
       </c>
       <c r="F4" t="n">
-        <v>54789.43521839501</v>
+        <v>54789.43521839489</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.13782657709</v>
+        <v>93774.13782657693</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="J4" t="n">
         <v>94538.12497809299</v>
@@ -26448,16 +26448,16 @@
         <v>95465.08003076469</v>
       </c>
       <c r="M4" t="n">
+        <v>93774.13782657709</v>
+      </c>
+      <c r="N4" t="n">
         <v>93774.13782657706</v>
       </c>
-      <c r="N4" t="n">
-        <v>93774.13782657708</v>
-      </c>
       <c r="O4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657709</v>
+        <v>93774.13782657706</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36495.16268711828</v>
+        <v>36495.16268711824</v>
       </c>
       <c r="E5" t="n">
-        <v>62733.36411102006</v>
+        <v>62733.36411102012</v>
       </c>
       <c r="F5" t="n">
         <v>77544.12697928958</v>
       </c>
       <c r="G5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="H5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="I5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="J5" t="n">
         <v>85284.92547800273</v>
@@ -26506,7 +26506,7 @@
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624984</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-460279.7429958793</v>
+        <v>-460284.1565737474</v>
       </c>
       <c r="C6" t="n">
-        <v>-460279.7429958793</v>
+        <v>-460284.1565737474</v>
       </c>
       <c r="D6" t="n">
-        <v>-529949.6740146184</v>
+        <v>-529953.9823608272</v>
       </c>
       <c r="E6" t="n">
-        <v>-951303.3807352947</v>
+        <v>-951715.9288905371</v>
       </c>
       <c r="F6" t="n">
-        <v>-266841.2719969201</v>
+        <v>-267018.8368335007</v>
       </c>
       <c r="G6" t="n">
-        <v>-182577.6705315137</v>
+        <v>-182577.6705315135</v>
       </c>
       <c r="H6" t="n">
         <v>-135240.6466396126</v>
       </c>
       <c r="I6" t="n">
-        <v>-135240.6466396127</v>
+        <v>-135240.6466396126</v>
       </c>
       <c r="J6" t="n">
-        <v>-158074.134439356</v>
+        <v>-158074.1344393559</v>
       </c>
       <c r="K6" t="n">
         <v>-158911.5249080936</v>
       </c>
       <c r="L6" t="n">
-        <v>-189478.2187207066</v>
+        <v>-189478.2187207065</v>
       </c>
       <c r="M6" t="n">
-        <v>-296466.9843327686</v>
+        <v>-296466.9843327689</v>
       </c>
       <c r="N6" t="n">
-        <v>-176666.4875535106</v>
+        <v>-176666.4875535103</v>
       </c>
       <c r="O6" t="n">
-        <v>-135240.6466396126</v>
+        <v>-135240.6466396127</v>
       </c>
       <c r="P6" t="n">
-        <v>-135240.6466396129</v>
+        <v>-135240.6466396127</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="F2" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="J2" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="K2" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="L2" t="n">
         <v>59.17127986487603</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>131.5395728035909</v>
+        <v>131.539572803589</v>
       </c>
       <c r="E3" t="n">
-        <v>951.7573395787573</v>
+        <v>951.7573395787581</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>662.2659949838913</v>
+        <v>662.2659949838923</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>905.1779321282046</v>
@@ -26820,7 +26820,7 @@
         <v>970.338830450016</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022924</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="F2" t="n">
-        <v>18.06260101480608</v>
+        <v>18.06260101480611</v>
       </c>
       <c r="G2" t="n">
-        <v>59.17127986487617</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487616</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="M2" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>131.5395728035909</v>
+        <v>131.539572803589</v>
       </c>
       <c r="E3" t="n">
-        <v>820.2177667751664</v>
+        <v>820.2177667751691</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0193610145408</v>
+        <v>138.0193610145402</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>662.2659949838913</v>
+        <v>662.2659949838923</v>
       </c>
       <c r="F4" t="n">
-        <v>169.1354604184013</v>
+        <v>169.1354604184006</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>73.77647672591195</v>
+        <v>73.77647672591172</v>
       </c>
       <c r="K4" t="n">
         <v>65.16089832181137</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.3286199361676</v>
+        <v>523.3286199361686</v>
       </c>
       <c r="N4" t="n">
-        <v>169.1354604184015</v>
+        <v>169.1354604184006</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="K2" t="n">
-        <v>18.06260101480608</v>
+        <v>18.06260101480611</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487617</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>662.2659949838913</v>
+        <v>662.2659949838923</v>
       </c>
       <c r="N4" t="n">
-        <v>169.1354604184013</v>
+        <v>169.1354604184006</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,43 +27868,43 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>334.059205532954</v>
+        <v>334.0592055329541</v>
       </c>
       <c r="I8" t="n">
-        <v>190.0892387944845</v>
+        <v>190.0892387944849</v>
       </c>
       <c r="J8" t="n">
-        <v>136.1644700855254</v>
+        <v>136.164470085526</v>
       </c>
       <c r="K8" t="n">
-        <v>152.8242151293433</v>
+        <v>152.8242151293443</v>
       </c>
       <c r="L8" t="n">
-        <v>152.3174455822378</v>
+        <v>152.317445582239</v>
       </c>
       <c r="M8" t="n">
-        <v>137.4931758883841</v>
+        <v>137.4931758883856</v>
       </c>
       <c r="N8" t="n">
-        <v>135.0575467150764</v>
+        <v>135.0575467150778</v>
       </c>
       <c r="O8" t="n">
-        <v>141.0009724379238</v>
+        <v>141.0009724379251</v>
       </c>
       <c r="P8" t="n">
-        <v>155.1905636201042</v>
+        <v>155.1905636201053</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.2009902057308</v>
+        <v>165.2009902057316</v>
       </c>
       <c r="R8" t="n">
-        <v>182.3681601653942</v>
+        <v>182.3681601653947</v>
       </c>
       <c r="S8" t="n">
-        <v>196.9699871128309</v>
+        <v>196.9699871128311</v>
       </c>
       <c r="T8" t="n">
-        <v>220.7810174839395</v>
+        <v>220.7810174839396</v>
       </c>
       <c r="U8" t="n">
         <v>251.3033487236183</v>
@@ -27950,34 +27950,34 @@
         <v>109.5028957524068</v>
       </c>
       <c r="I9" t="n">
-        <v>89.78100597633784</v>
+        <v>89.78100597633798</v>
       </c>
       <c r="J9" t="n">
-        <v>100.1065517821181</v>
+        <v>100.1065517821185</v>
       </c>
       <c r="K9" t="n">
-        <v>92.15377433370043</v>
+        <v>92.15377433370111</v>
       </c>
       <c r="L9" t="n">
-        <v>77.12167646249901</v>
+        <v>77.12167646249992</v>
       </c>
       <c r="M9" t="n">
-        <v>70.44496674406128</v>
+        <v>70.44496674406234</v>
       </c>
       <c r="N9" t="n">
-        <v>57.75524861465276</v>
+        <v>57.75524861465385</v>
       </c>
       <c r="O9" t="n">
-        <v>75.27900665315768</v>
+        <v>75.27900665315869</v>
       </c>
       <c r="P9" t="n">
-        <v>79.94638929430437</v>
+        <v>79.94638929430519</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.8654747758733</v>
+        <v>103.8654747758738</v>
       </c>
       <c r="R9" t="n">
-        <v>128.1127662978542</v>
+        <v>128.1127662978545</v>
       </c>
       <c r="S9" t="n">
         <v>166.4277928885246</v>
@@ -28026,37 +28026,37 @@
         <v>167.7537768501244</v>
       </c>
       <c r="H10" t="n">
-        <v>160.1182265697033</v>
+        <v>160.1182265697034</v>
       </c>
       <c r="I10" t="n">
-        <v>148.3171485857127</v>
+        <v>148.3171485857128</v>
       </c>
       <c r="J10" t="n">
-        <v>110.225204100158</v>
+        <v>110.2252041001582</v>
       </c>
       <c r="K10" t="n">
-        <v>101.4546394749634</v>
+        <v>101.4546394749638</v>
       </c>
       <c r="L10" t="n">
-        <v>99.61913245123949</v>
+        <v>99.61913245124003</v>
       </c>
       <c r="M10" t="n">
-        <v>101.7432125729769</v>
+        <v>101.7432125729775</v>
       </c>
       <c r="N10" t="n">
-        <v>91.38709153076029</v>
+        <v>91.38709153076083</v>
       </c>
       <c r="O10" t="n">
-        <v>104.9290420920029</v>
+        <v>104.9290420920034</v>
       </c>
       <c r="P10" t="n">
-        <v>109.0394388593284</v>
+        <v>109.0394388593288</v>
       </c>
       <c r="Q10" t="n">
-        <v>131.6425261361036</v>
+        <v>131.6425261361039</v>
       </c>
       <c r="R10" t="n">
-        <v>166.6279040478816</v>
+        <v>166.6279040478818</v>
       </c>
       <c r="S10" t="n">
         <v>219.8828052326365</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="C11" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="D11" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="E11" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="F11" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="G11" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="H11" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="I11" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="T11" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="U11" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="V11" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="W11" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="X11" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28166,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="C12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="D12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="E12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="F12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="G12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="H12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="I12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="J12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="K12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="L12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="M12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="N12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="O12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="P12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="R12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="S12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="T12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="U12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="V12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="W12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="X12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="C13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="D13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="E13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="F13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="G13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="H13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="I13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="J13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="K13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="L13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="M13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="N13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="O13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="P13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="R13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="S13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="T13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="U13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="V13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="W13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="X13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.4508393484228</v>
+        <v>20.45083934842269</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="C14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="D14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="E14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="F14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="G14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="H14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="I14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="T14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="U14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="V14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="W14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="X14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
     </row>
     <row r="15">
@@ -28412,7 +28412,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="C16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="D16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="E16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="F16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="G16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="H16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="I16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="J16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="K16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="L16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="M16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="N16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="P16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="R16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="S16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="T16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="U16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="V16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="W16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="X16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632288</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="18">
@@ -28703,7 +28703,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810505</v>
+        <v>76.32843350416115</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.08100106221595</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="J22" t="n">
-        <v>77.66073332242732</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>76.32843350416144</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="24">
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810495</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810495</v>
+        <v>86.41330088048525</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>76.3284335041603</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810495</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="26">
@@ -29272,31 +29272,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="C26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="D26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="E26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="F26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="G26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="H26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="I26" t="n">
-        <v>77.23388087968215</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29305,43 +29305,43 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="N26" t="n">
-        <v>24.76644541134488</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>60.42339651810067</v>
       </c>
       <c r="Q26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="R26" t="n">
-        <v>77.23388087968215</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="T26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="U26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="V26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="W26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="X26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="Y26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="C28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="D28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="E28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="F28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="G28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="H28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="I28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="J28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="K28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="L28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="M28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="N28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="O28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="P28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="Q28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="R28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="S28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="T28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="U28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="V28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="W28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="X28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
       <c r="Y28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968219</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="C29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="D29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="E29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="F29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="G29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="H29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="I29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="J29" t="n">
-        <v>59.17127986487569</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="K29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="L29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="M29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="N29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="O29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="P29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="R29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="S29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="T29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="U29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="V29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="W29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="X29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Y29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
     </row>
     <row r="30">
@@ -29591,7 +29591,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="C31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="D31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="E31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="F31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="G31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="H31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="I31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="J31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="K31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="L31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="M31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="N31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="O31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="P31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="R31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="S31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="T31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="U31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="V31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="W31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="X31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
     </row>
     <row r="32">
@@ -29776,7 +29776,7 @@
         <v>59.17127986487603</v>
       </c>
       <c r="L32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.171279864876</v>
       </c>
       <c r="M32" t="n">
         <v>59.17127986487603</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>9.201528428093297e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29879,7 +29879,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.051603248924948e-12</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292496</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30028,31 +30028,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>76.32843350415902</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>86.41330088048238</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
     </row>
     <row r="40">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J40" t="n">
-        <v>86.41330088048231</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>76.32843350415884</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810495</v>
+        <v>76.32843350415897</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.41330088048502</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M46" t="n">
-        <v>85.08100106221508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>76.32843350415916</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5288023027280033</v>
+        <v>0.5288023027279954</v>
       </c>
       <c r="H8" t="n">
-        <v>5.415596582813165</v>
+        <v>5.415596582813084</v>
       </c>
       <c r="I8" t="n">
-        <v>20.38665077592137</v>
+        <v>20.38665077592106</v>
       </c>
       <c r="J8" t="n">
-        <v>44.88143444116091</v>
+        <v>44.88143444116024</v>
       </c>
       <c r="K8" t="n">
-        <v>67.2656359156373</v>
+        <v>67.2656359156363</v>
       </c>
       <c r="L8" t="n">
-        <v>83.44896938774944</v>
+        <v>83.44896938774821</v>
       </c>
       <c r="M8" t="n">
-        <v>92.85305733888858</v>
+        <v>92.85305733888718</v>
       </c>
       <c r="N8" t="n">
-        <v>94.35551688151452</v>
+        <v>94.35551688151311</v>
       </c>
       <c r="O8" t="n">
-        <v>89.09723898376294</v>
+        <v>89.0972389837616</v>
       </c>
       <c r="P8" t="n">
-        <v>76.04243213516534</v>
+        <v>76.0424321351642</v>
       </c>
       <c r="Q8" t="n">
-        <v>57.1046996687187</v>
+        <v>57.10469966871785</v>
       </c>
       <c r="R8" t="n">
-        <v>33.21737764873797</v>
+        <v>33.21737764873747</v>
       </c>
       <c r="S8" t="n">
-        <v>12.05008247341439</v>
+        <v>12.05008247341421</v>
       </c>
       <c r="T8" t="n">
-        <v>2.314832080191835</v>
+        <v>2.314832080191801</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04230418421824025</v>
+        <v>0.04230418421823962</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2829341754643276</v>
+        <v>0.2829341754643234</v>
       </c>
       <c r="H9" t="n">
-        <v>2.732548484089691</v>
+        <v>2.73254848408965</v>
       </c>
       <c r="I9" t="n">
-        <v>9.741374023662159</v>
+        <v>9.741374023662013</v>
       </c>
       <c r="J9" t="n">
-        <v>26.73107488454861</v>
+        <v>26.73107488454821</v>
       </c>
       <c r="K9" t="n">
-        <v>45.68766464065856</v>
+        <v>45.68766464065788</v>
       </c>
       <c r="L9" t="n">
-        <v>61.43270331737518</v>
+        <v>61.43270331737426</v>
       </c>
       <c r="M9" t="n">
-        <v>71.68906717795704</v>
+        <v>71.68906717795598</v>
       </c>
       <c r="N9" t="n">
-        <v>73.58646346868055</v>
+        <v>73.58646346867945</v>
       </c>
       <c r="O9" t="n">
-        <v>67.31723779128676</v>
+        <v>67.31723779128575</v>
       </c>
       <c r="P9" t="n">
-        <v>54.02801812002587</v>
+        <v>54.02801812002506</v>
       </c>
       <c r="Q9" t="n">
-        <v>36.11629931014821</v>
+        <v>36.11629931014767</v>
       </c>
       <c r="R9" t="n">
-        <v>17.56673766610975</v>
+        <v>17.56673766610949</v>
       </c>
       <c r="S9" t="n">
-        <v>5.255378215313275</v>
+        <v>5.255378215313197</v>
       </c>
       <c r="T9" t="n">
-        <v>1.140423277419811</v>
+        <v>1.140423277419794</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01861409049107419</v>
+        <v>0.01861409049107392</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2372025083343443</v>
+        <v>0.2372025083343407</v>
       </c>
       <c r="H10" t="n">
-        <v>2.108945937736262</v>
+        <v>2.108945937736231</v>
       </c>
       <c r="I10" t="n">
-        <v>7.133326341545555</v>
+        <v>7.133326341545448</v>
       </c>
       <c r="J10" t="n">
-        <v>16.77021733923814</v>
+        <v>16.77021733923789</v>
       </c>
       <c r="K10" t="n">
-        <v>27.55861869557199</v>
+        <v>27.55861869557158</v>
       </c>
       <c r="L10" t="n">
-        <v>35.26554382999878</v>
+        <v>35.26554382999826</v>
       </c>
       <c r="M10" t="n">
-        <v>37.18257137462816</v>
+        <v>37.18257137462761</v>
       </c>
       <c r="N10" t="n">
-        <v>36.29845293447291</v>
+        <v>36.29845293447237</v>
       </c>
       <c r="O10" t="n">
-        <v>33.52749635983987</v>
+        <v>33.52749635983937</v>
       </c>
       <c r="P10" t="n">
-        <v>28.68856518981922</v>
+        <v>28.6885651898188</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.86247549334223</v>
+        <v>19.86247549334193</v>
       </c>
       <c r="R10" t="n">
-        <v>10.66548732928788</v>
+        <v>10.66548732928772</v>
       </c>
       <c r="S10" t="n">
-        <v>4.133792804335798</v>
+        <v>4.133792804335736</v>
       </c>
       <c r="T10" t="n">
-        <v>1.013501626519471</v>
+        <v>1.013501626519455</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01293831863641879</v>
+        <v>0.0129383186364186</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.826160159110579</v>
+        <v>3.826160159110582</v>
       </c>
       <c r="H11" t="n">
-        <v>39.18466272949123</v>
+        <v>39.18466272949127</v>
       </c>
       <c r="I11" t="n">
-        <v>147.5080395341107</v>
+        <v>147.5080395341109</v>
       </c>
       <c r="J11" t="n">
-        <v>324.7405608043118</v>
+        <v>324.7405608043121</v>
       </c>
       <c r="K11" t="n">
-        <v>486.7019203394627</v>
+        <v>486.7019203394631</v>
       </c>
       <c r="L11" t="n">
-        <v>603.7967693088433</v>
+        <v>603.7967693088437</v>
       </c>
       <c r="M11" t="n">
-        <v>671.840245038426</v>
+        <v>671.8402450384266</v>
       </c>
       <c r="N11" t="n">
-        <v>682.711322590499</v>
+        <v>682.7113225904995</v>
       </c>
       <c r="O11" t="n">
-        <v>644.6649425083431</v>
+        <v>644.6649425083436</v>
       </c>
       <c r="P11" t="n">
-        <v>550.2066135803005</v>
+        <v>550.2066135803011</v>
       </c>
       <c r="Q11" t="n">
-        <v>413.1822528821529</v>
+        <v>413.1822528821532</v>
       </c>
       <c r="R11" t="n">
-        <v>240.3450330947301</v>
+        <v>240.3450330947303</v>
       </c>
       <c r="S11" t="n">
-        <v>87.18862462573242</v>
+        <v>87.18862462573249</v>
       </c>
       <c r="T11" t="n">
-        <v>16.74901609650657</v>
+        <v>16.74901609650658</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3060928127288463</v>
+        <v>0.3060928127288465</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04717616437695</v>
+        <v>2.047176164376951</v>
       </c>
       <c r="H12" t="n">
-        <v>19.77141190332475</v>
+        <v>19.77141190332477</v>
       </c>
       <c r="I12" t="n">
-        <v>70.48391618578533</v>
+        <v>70.4839161857854</v>
       </c>
       <c r="J12" t="n">
-        <v>193.4132533194907</v>
+        <v>193.4132533194909</v>
       </c>
       <c r="K12" t="n">
-        <v>330.5740563327463</v>
+        <v>330.5740563327466</v>
       </c>
       <c r="L12" t="n">
-        <v>444.4976141117584</v>
+        <v>444.4976141117587</v>
       </c>
       <c r="M12" t="n">
-        <v>518.7077500704227</v>
+        <v>518.7077500704231</v>
       </c>
       <c r="N12" t="n">
-        <v>532.436400751705</v>
+        <v>532.4364007517055</v>
       </c>
       <c r="O12" t="n">
-        <v>487.0752867936683</v>
+        <v>487.0752867936688</v>
       </c>
       <c r="P12" t="n">
-        <v>390.9208589677353</v>
+        <v>390.9208589677356</v>
       </c>
       <c r="Q12" t="n">
-        <v>261.3202416141524</v>
+        <v>261.3202416141526</v>
       </c>
       <c r="R12" t="n">
-        <v>127.1044990478952</v>
+        <v>127.1044990478953</v>
       </c>
       <c r="S12" t="n">
-        <v>38.0253993690192</v>
+        <v>38.02539936901923</v>
       </c>
       <c r="T12" t="n">
-        <v>8.251556557291298</v>
+        <v>8.251556557291305</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1346826423932204</v>
+        <v>0.1346826423932205</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.716283727109234</v>
+        <v>1.716283727109236</v>
       </c>
       <c r="H13" t="n">
-        <v>15.25932259193484</v>
+        <v>15.25932259193485</v>
       </c>
       <c r="I13" t="n">
-        <v>51.6133324479759</v>
+        <v>51.61333244797594</v>
       </c>
       <c r="J13" t="n">
-        <v>121.3412595066229</v>
+        <v>121.341259506623</v>
       </c>
       <c r="K13" t="n">
-        <v>199.4009639314183</v>
+        <v>199.4009639314184</v>
       </c>
       <c r="L13" t="n">
-        <v>255.1645824831311</v>
+        <v>255.1645824831313</v>
       </c>
       <c r="M13" t="n">
-        <v>269.0352755140411</v>
+        <v>269.0352755140414</v>
       </c>
       <c r="N13" t="n">
-        <v>262.6382179857251</v>
+        <v>262.6382179857253</v>
       </c>
       <c r="O13" t="n">
-        <v>242.5889035372217</v>
+        <v>242.5889035372219</v>
       </c>
       <c r="P13" t="n">
-        <v>207.5767155041931</v>
+        <v>207.5767155041933</v>
       </c>
       <c r="Q13" t="n">
-        <v>143.7153582763924</v>
+        <v>143.7153582763925</v>
       </c>
       <c r="R13" t="n">
-        <v>77.1703574025661</v>
+        <v>77.17035740256617</v>
       </c>
       <c r="S13" t="n">
-        <v>29.91014458971274</v>
+        <v>29.91014458971276</v>
       </c>
       <c r="T13" t="n">
-        <v>7.333212288557635</v>
+        <v>7.333212288557641</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09361547602414017</v>
+        <v>0.09361547602414023</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33275,7 +33275,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
@@ -34223,7 +34223,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970249</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>143.6946562776255</v>
+        <v>143.6946562776258</v>
       </c>
       <c r="K11" t="n">
-        <v>266.6120692944822</v>
+        <v>266.6120692944826</v>
       </c>
       <c r="L11" t="n">
-        <v>368.0303543388561</v>
+        <v>368.0303543388565</v>
       </c>
       <c r="M11" t="n">
-        <v>441.4940118111533</v>
+        <v>441.4940118111539</v>
       </c>
       <c r="N11" t="n">
-        <v>453.2982589939081</v>
+        <v>453.2982589939086</v>
       </c>
       <c r="O11" t="n">
-        <v>414.5667310866563</v>
+        <v>414.5667310866569</v>
       </c>
       <c r="P11" t="n">
-        <v>318.973617825031</v>
+        <v>318.9736178250316</v>
       </c>
       <c r="Q11" t="n">
-        <v>190.8765630077034</v>
+        <v>190.8765630077037</v>
       </c>
       <c r="R11" t="n">
-        <v>24.759495280598</v>
+        <v>24.7594952805982</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.02646600124682</v>
+        <v>87.02646600124687</v>
       </c>
       <c r="K12" t="n">
-        <v>213.1834567068101</v>
+        <v>213.1834567068103</v>
       </c>
       <c r="L12" t="n">
-        <v>326.394073680307</v>
+        <v>326.3940736803072</v>
       </c>
       <c r="M12" t="n">
-        <v>397.0245554968271</v>
+        <v>397.0245554968275</v>
       </c>
       <c r="N12" t="n">
-        <v>421.5455280167945</v>
+        <v>421.5455280167949</v>
       </c>
       <c r="O12" t="n">
-        <v>364.9298816976467</v>
+        <v>364.929881697647</v>
       </c>
       <c r="P12" t="n">
-        <v>277.3972909018278</v>
+        <v>277.3972909018281</v>
       </c>
       <c r="Q12" t="n">
-        <v>141.7893068765537</v>
+        <v>141.7893068765538</v>
       </c>
       <c r="R12" t="n">
-        <v>1.875834432354083</v>
+        <v>1.875834432354068</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>48.43291873837289</v>
+        <v>48.43291873837288</v>
       </c>
       <c r="K13" t="n">
-        <v>197.5823114539582</v>
+        <v>197.5823114539583</v>
       </c>
       <c r="L13" t="n">
-        <v>303.20544709187</v>
+        <v>303.2054470918701</v>
       </c>
       <c r="M13" t="n">
-        <v>329.0699918243045</v>
+        <v>329.0699918243046</v>
       </c>
       <c r="N13" t="n">
-        <v>327.2212297133765</v>
+        <v>327.2212297133766</v>
       </c>
       <c r="O13" t="n">
         <v>287.6248707996842</v>
       </c>
       <c r="P13" t="n">
-        <v>225.3061141175094</v>
+        <v>225.3061141175095</v>
       </c>
       <c r="Q13" t="n">
         <v>78.00415437312077</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>84.09185697629508</v>
+        <v>84.09185697629502</v>
       </c>
       <c r="K16" t="n">
         <v>244.5610999075484</v>
@@ -35811,16 +35811,16 @@
         <v>358.2708125334269</v>
       </c>
       <c r="M16" t="n">
-        <v>386.1468197567127</v>
+        <v>386.1468197567126</v>
       </c>
       <c r="N16" t="n">
         <v>383.3703865307689</v>
       </c>
       <c r="O16" t="n">
-        <v>340.8665705858686</v>
+        <v>340.8665705858685</v>
       </c>
       <c r="P16" t="n">
-        <v>273.4705115083393</v>
+        <v>273.4705115083392</v>
       </c>
       <c r="Q16" t="n">
         <v>116.9076789011225</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36036,34 +36036,34 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.332299818266939</v>
+        <v>1.332299818266783</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M19" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N19" t="n">
-        <v>270.7239495511833</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O19" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>197.6352280591743</v>
+        <v>176.2789413352305</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.13228122235812</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>8.752567558057549</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36273,25 +36273,25 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.332299818266783</v>
       </c>
       <c r="J22" t="n">
-        <v>89.60290861277018</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>175.6323267038285</v>
       </c>
       <c r="L22" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M22" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P22" t="n">
         <v>197.6352280591742</v>
@@ -36300,7 +36300,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R22" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057549</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36510,10 +36510,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.33229981826684</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K25" t="n">
         <v>196.988613427772</v>
@@ -36522,22 +36522,22 @@
         <v>254.9673908567486</v>
       </c>
       <c r="M25" t="n">
-        <v>266.8084387121431</v>
+        <v>255.5370193645234</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O25" t="n">
-        <v>236.9961840848622</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>176.2789413352296</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057606</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,10 +36589,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>35.65695110675617</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>268.0208818483947</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
@@ -36604,19 +36604,19 @@
         <v>616.1549967099087</v>
       </c>
       <c r="N26" t="n">
-        <v>577.0682808242561</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>459.1853827374723</v>
       </c>
       <c r="Q26" t="n">
         <v>328.0281856834016</v>
       </c>
       <c r="R26" t="n">
-        <v>136.8470794219069</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.17605617002501</v>
+        <v>122.8122974927484</v>
       </c>
       <c r="K28" t="n">
-        <v>176.5377740793491</v>
+        <v>283.2815404240017</v>
       </c>
       <c r="L28" t="n">
-        <v>286.6653383225129</v>
+        <v>239.6633920847287</v>
       </c>
       <c r="M28" t="n">
         <v>246.3575993637203</v>
@@ -36765,13 +36765,13 @@
         <v>250.2731102027604</v>
       </c>
       <c r="O28" t="n">
-        <v>379.5870111023219</v>
+        <v>216.5453447364395</v>
       </c>
       <c r="P28" t="n">
-        <v>177.1843887107514</v>
+        <v>312.1909520247926</v>
       </c>
       <c r="Q28" t="n">
-        <v>155.6281194175758</v>
+        <v>90.28516103982436</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,10 +36826,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>17.59435009195008</v>
+        <v>17.59435009195005</v>
       </c>
       <c r="J29" t="n">
-        <v>249.9582808335882</v>
+        <v>249.9582808335885</v>
       </c>
       <c r="K29" t="n">
         <v>396.3625664202764</v>
@@ -36841,19 +36841,19 @@
         <v>598.0923956951026</v>
       </c>
       <c r="N29" t="n">
-        <v>611.4731152777874</v>
+        <v>611.4731152777873</v>
       </c>
       <c r="O29" t="n">
         <v>567.2242807530951</v>
       </c>
       <c r="P29" t="n">
-        <v>457.9332660842477</v>
+        <v>457.9332660842476</v>
       </c>
       <c r="Q29" t="n">
         <v>309.9655846685955</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7844784071008</v>
+        <v>118.7844784071007</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>104.7496964779422</v>
+        <v>71.1134551552189</v>
       </c>
       <c r="K31" t="n">
-        <v>265.2189394091956</v>
+        <v>158.475173064543</v>
       </c>
       <c r="L31" t="n">
-        <v>216.4539504935197</v>
+        <v>378.9286520350741</v>
       </c>
       <c r="M31" t="n">
-        <v>272.609825134171</v>
+        <v>406.8046592583598</v>
       </c>
       <c r="N31" t="n">
         <v>404.0282260324161</v>
       </c>
       <c r="O31" t="n">
-        <v>361.5244100875158</v>
+        <v>270.5778404669004</v>
       </c>
       <c r="P31" t="n">
         <v>294.1283510099864</v>
       </c>
       <c r="Q31" t="n">
-        <v>137.5655184027697</v>
+        <v>72.2225600250182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>104.7496964779422</v>
+        <v>71.1134551552189</v>
       </c>
       <c r="K34" t="n">
         <v>265.2189394091956</v>
@@ -37233,19 +37233,19 @@
         <v>378.9286520350741</v>
       </c>
       <c r="M34" t="n">
-        <v>406.8046592583598</v>
+        <v>228.2949983489142</v>
       </c>
       <c r="N34" t="n">
         <v>404.0282260324161</v>
       </c>
       <c r="O34" t="n">
-        <v>199.861437735814</v>
+        <v>361.5244100875158</v>
       </c>
       <c r="P34" t="n">
-        <v>159.1217876959453</v>
+        <v>274.9476759541641</v>
       </c>
       <c r="Q34" t="n">
-        <v>137.5655184027697</v>
+        <v>72.2225600250182</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222472</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J37" t="n">
         <v>109.6268955184479</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966699</v>
+        <v>175.632326703826</v>
       </c>
       <c r="L37" t="n">
         <v>157.2826706286436</v>
       </c>
       <c r="M37" t="n">
-        <v>255.5370193645205</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O37" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q37" t="n">
         <v>110.7360003882472</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37695,19 +37695,19 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J40" t="n">
-        <v>98.35547617082517</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K40" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121432</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N40" t="n">
         <v>270.7239495511833</v>
@@ -37716,13 +37716,13 @@
         <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05128016014217</v>
+        <v>89.37971366430101</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K43" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567486</v>
+        <v>233.6111041328026</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.46458104062719</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525805</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266982</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J46" t="n">
-        <v>109.626895518448</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567488</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
-        <v>254.2047195462532</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511834</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848624</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106927</v>
+        <v>176.2789413352284</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
